--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H2">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I2">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J2">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>1.697372445289111</v>
+        <v>2.373145247734667</v>
       </c>
       <c r="R2">
-        <v>15.276352007602</v>
+        <v>21.358307229612</v>
       </c>
       <c r="S2">
-        <v>0.08294759411951549</v>
+        <v>0.07481072984501361</v>
       </c>
       <c r="T2">
-        <v>0.08294759411951548</v>
+        <v>0.07481072984501361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H3">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I3">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J3">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
-        <v>0.3977526239731111</v>
+        <v>0.3264101722503333</v>
       </c>
       <c r="R3">
-        <v>3.579773615758</v>
+        <v>2.937691550253</v>
       </c>
       <c r="S3">
-        <v>0.01943746836757109</v>
+        <v>0.01028971287711685</v>
       </c>
       <c r="T3">
-        <v>0.01943746836757109</v>
+        <v>0.01028971287711684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H4">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I4">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J4">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>0.558736336022</v>
+        <v>1.274896023674333</v>
       </c>
       <c r="R4">
-        <v>5.028627024198</v>
+        <v>11.474064213069</v>
       </c>
       <c r="S4">
-        <v>0.02730445810452876</v>
+        <v>0.0401896605775081</v>
       </c>
       <c r="T4">
-        <v>0.02730445810452876</v>
+        <v>0.04018966057750809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H5">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I5">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J5">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>0.8660631853151112</v>
+        <v>0.6472942909996666</v>
       </c>
       <c r="R5">
-        <v>7.794568667836</v>
+        <v>5.825648618996999</v>
       </c>
       <c r="S5">
-        <v>0.04232297854059751</v>
+        <v>0.02040522314444104</v>
       </c>
       <c r="T5">
-        <v>0.04232297854059751</v>
+        <v>0.02040522314444104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H6">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I6">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J6">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>0.6022281657924445</v>
+        <v>0.6767139819349999</v>
       </c>
       <c r="R6">
-        <v>5.420053492132</v>
+        <v>6.090425837414999</v>
       </c>
       <c r="S6">
-        <v>0.02942982702596158</v>
+        <v>0.02133264575070079</v>
       </c>
       <c r="T6">
-        <v>0.02942982702596158</v>
+        <v>0.02133264575070079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H7">
         <v>11.608982</v>
       </c>
       <c r="I7">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J7">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N7">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O7">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P7">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q7">
-        <v>4.441025093308221</v>
+        <v>7.566233991487112</v>
       </c>
       <c r="R7">
-        <v>39.969225839774</v>
+        <v>68.096105923384</v>
       </c>
       <c r="S7">
-        <v>0.2170250541869551</v>
+        <v>0.2385170008542974</v>
       </c>
       <c r="T7">
-        <v>0.2170250541869551</v>
+        <v>0.2385170008542974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H8">
         <v>11.608982</v>
       </c>
       <c r="I8">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J8">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P8">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q8">
         <v>1.040684611616222</v>
       </c>
       <c r="R8">
-        <v>9.366161504545998</v>
+        <v>9.366161504546</v>
       </c>
       <c r="S8">
-        <v>0.05085641929109133</v>
+        <v>0.03280640972473201</v>
       </c>
       <c r="T8">
-        <v>0.05085641929109132</v>
+        <v>0.03280640972473201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H9">
         <v>11.608982</v>
       </c>
       <c r="I9">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J9">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N9">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q9">
-        <v>1.461884276314</v>
+        <v>4.064716072117556</v>
       </c>
       <c r="R9">
-        <v>13.156958486826</v>
+        <v>36.582444649058</v>
       </c>
       <c r="S9">
-        <v>0.07143970313524282</v>
+        <v>0.1281355940004688</v>
       </c>
       <c r="T9">
-        <v>0.07143970313524284</v>
+        <v>0.1281355940004688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H10">
         <v>11.608982</v>
       </c>
       <c r="I10">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J10">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N10">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q10">
-        <v>2.265977834770222</v>
+        <v>2.063750658217111</v>
       </c>
       <c r="R10">
-        <v>20.393800512932</v>
+        <v>18.573755923954</v>
       </c>
       <c r="S10">
-        <v>0.1107343354394588</v>
+        <v>0.06505741404017561</v>
       </c>
       <c r="T10">
-        <v>0.1107343354394588</v>
+        <v>0.06505741404017559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H11">
         <v>11.608982</v>
       </c>
       <c r="I11">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J11">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N11">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O11">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P11">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q11">
-        <v>1.575676807764889</v>
+        <v>2.157548653003333</v>
       </c>
       <c r="R11">
-        <v>14.181091269884</v>
+        <v>19.41793787703</v>
       </c>
       <c r="S11">
-        <v>0.07700054320827279</v>
+        <v>0.0680142901330546</v>
       </c>
       <c r="T11">
-        <v>0.07700054320827279</v>
+        <v>0.0680142901330546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H12">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I12">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J12">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N12">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O12">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P12">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q12">
-        <v>0.120393320376</v>
+        <v>0.3128068082808889</v>
       </c>
       <c r="R12">
-        <v>1.083539883384</v>
+        <v>2.815261274528</v>
       </c>
       <c r="S12">
-        <v>0.005883408971887889</v>
+        <v>0.0098608821564212</v>
       </c>
       <c r="T12">
-        <v>0.005883408971887888</v>
+        <v>0.0098608821564212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H13">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I13">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J13">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O13">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P13">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q13">
-        <v>0.028212287304</v>
+        <v>0.04302447322577778</v>
       </c>
       <c r="R13">
-        <v>0.2539105857359999</v>
+        <v>0.387220259032</v>
       </c>
       <c r="S13">
-        <v>0.001378684662267366</v>
+        <v>0.001356298037926734</v>
       </c>
       <c r="T13">
-        <v>0.001378684662267366</v>
+        <v>0.001356298037926734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H14">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I14">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J14">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N14">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q14">
-        <v>0.039630738024</v>
+        <v>0.1680454057484445</v>
       </c>
       <c r="R14">
-        <v>0.356676642216</v>
+        <v>1.512408651736</v>
       </c>
       <c r="S14">
-        <v>0.00193668418583977</v>
+        <v>0.00529744206054941</v>
       </c>
       <c r="T14">
-        <v>0.00193668418583977</v>
+        <v>0.00529744206054941</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H15">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I15">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J15">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N15">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q15">
-        <v>0.061429194768</v>
+        <v>0.08532055144088889</v>
       </c>
       <c r="R15">
-        <v>0.552862752912</v>
+        <v>0.7678849629679999</v>
       </c>
       <c r="S15">
-        <v>0.003001936274414326</v>
+        <v>0.002689634243906833</v>
       </c>
       <c r="T15">
-        <v>0.003001936274414326</v>
+        <v>0.002689634243906833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H16">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I16">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J16">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N16">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O16">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P16">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q16">
-        <v>0.042715580016</v>
+        <v>0.08919839230666665</v>
       </c>
       <c r="R16">
-        <v>0.384440220144</v>
+        <v>0.8027855307599999</v>
       </c>
       <c r="S16">
-        <v>0.00208743496666305</v>
+        <v>0.002811878807600767</v>
       </c>
       <c r="T16">
-        <v>0.00208743496666305</v>
+        <v>0.002811878807600767</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H17">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I17">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J17">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N17">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O17">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P17">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q17">
-        <v>1.946065645516222</v>
+        <v>3.611141164256888</v>
       </c>
       <c r="R17">
-        <v>17.514590809646</v>
+        <v>32.500270478312</v>
       </c>
       <c r="S17">
-        <v>0.09510079166315076</v>
+        <v>0.1138371561240548</v>
       </c>
       <c r="T17">
-        <v>0.09510079166315075</v>
+        <v>0.1138371561240548</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H18">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I18">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J18">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O18">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P18">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q18">
-        <v>0.4560299768482222</v>
+        <v>0.4966881865197778</v>
       </c>
       <c r="R18">
-        <v>4.104269791634</v>
+        <v>4.470193678677999</v>
       </c>
       <c r="S18">
-        <v>0.02228537969431655</v>
+        <v>0.01565753540555951</v>
       </c>
       <c r="T18">
-        <v>0.02228537969431655</v>
+        <v>0.0156575354055595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H19">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I19">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J19">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N19">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q19">
-        <v>0.640600471306</v>
+        <v>1.939969547010444</v>
       </c>
       <c r="R19">
-        <v>5.765404241754</v>
+        <v>17.459725923094</v>
       </c>
       <c r="S19">
-        <v>0.03130501383720165</v>
+        <v>0.06115535398749362</v>
       </c>
       <c r="T19">
-        <v>0.03130501383720165</v>
+        <v>0.06115535398749362</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H20">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I20">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J20">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N20">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q20">
-        <v>0.9929557985142222</v>
+        <v>0.9849675496468887</v>
       </c>
       <c r="R20">
-        <v>8.936602186628001</v>
+        <v>8.864707946821998</v>
       </c>
       <c r="S20">
-        <v>0.04852399647606409</v>
+        <v>0.03104999212883283</v>
       </c>
       <c r="T20">
-        <v>0.04852399647606408</v>
+        <v>0.03104999212883282</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H21">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I21">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J21">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N21">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O21">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P21">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q21">
-        <v>0.6904645750928889</v>
+        <v>1.029734576476666</v>
       </c>
       <c r="R21">
-        <v>6.214181175836</v>
+        <v>9.267611188289999</v>
       </c>
       <c r="S21">
-        <v>0.03374178453742576</v>
+        <v>0.03246122220559441</v>
       </c>
       <c r="T21">
-        <v>0.03374178453742575</v>
+        <v>0.03246122220559441</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H22">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I22">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J22">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N22">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O22">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P22">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q22">
-        <v>0.2212398262106666</v>
+        <v>0.3447435475933333</v>
       </c>
       <c r="R22">
-        <v>1.991158435896</v>
+        <v>3.10269192834</v>
       </c>
       <c r="S22">
-        <v>0.01081159963361416</v>
+        <v>0.0108676518765277</v>
       </c>
       <c r="T22">
-        <v>0.01081159963361416</v>
+        <v>0.0108676518765277</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H23">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I23">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J23">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O23">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P23">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q23">
-        <v>0.05184408504266666</v>
+        <v>0.04741715698166667</v>
       </c>
       <c r="R23">
-        <v>0.4665967653839999</v>
+        <v>0.426754412835</v>
       </c>
       <c r="S23">
-        <v>0.002533528887871328</v>
+        <v>0.001494772443599996</v>
       </c>
       <c r="T23">
-        <v>0.002533528887871328</v>
+        <v>0.001494772443599996</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H24">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I24">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J24">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N24">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q24">
-        <v>0.07282711005599998</v>
+        <v>0.1852023926616667</v>
       </c>
       <c r="R24">
-        <v>0.6554439905039999</v>
+        <v>1.666821533955</v>
       </c>
       <c r="S24">
-        <v>0.003558932267687099</v>
+        <v>0.005838296740280758</v>
       </c>
       <c r="T24">
-        <v>0.003558932267687099</v>
+        <v>0.005838296740280757</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H25">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I25">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J25">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N25">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q25">
-        <v>0.1128848704586667</v>
+        <v>0.09403155176833333</v>
       </c>
       <c r="R25">
-        <v>1.015963834128</v>
+        <v>0.8462839659149999</v>
       </c>
       <c r="S25">
-        <v>0.005516484283120721</v>
+        <v>0.002964238713565124</v>
       </c>
       <c r="T25">
-        <v>0.005516484283120721</v>
+        <v>0.002964238713565124</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H26">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I26">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J26">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N26">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O26">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P26">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q26">
-        <v>0.07849594537066666</v>
+        <v>0.09830530982499998</v>
       </c>
       <c r="R26">
-        <v>0.7064635083359999</v>
+        <v>0.8847477884249999</v>
       </c>
       <c r="S26">
-        <v>0.003835958239280067</v>
+        <v>0.003098964120577375</v>
       </c>
       <c r="T26">
-        <v>0.003835958239280066</v>
+        <v>0.003098964120577375</v>
       </c>
     </row>
   </sheetData>
